--- a/biology/Biochimie/Lactose_perméase/Lactose_perméase.xlsx
+++ b/biology/Biochimie/Lactose_perméase/Lactose_perméase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lactose_perm%C3%A9ase</t>
+          <t>Lactose_perméase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lactose perméase est une protéine membranaire de la major facilitator superfamily. Il s'agit d'un symport β-galactoside/proton qui utilise le gradient de concentration en ions H+ pour absorber des β-galactosides tels que le lactose. Elle est codée par le gène LacY de l'opéron lactose.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lactose_perm%C3%A9ase</t>
+          <t>Lactose_perméase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La structure de la lactose perméase d'E. coli a été publiée en 2003 par J. Abramson et al.[2]. Cette protéine est constituée de douze hélices transmembranaires et présente une symétrie d'ordre 2 entre les six hélices N-terminales et les six hélices C-terminales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure de la lactose perméase d'E. coli a été publiée en 2003 par J. Abramson et al.. Cette protéine est constituée de douze hélices transmembranaires et présente une symétrie d'ordre 2 entre les six hélices N-terminales et les six hélices C-terminales.
 Le β-galactoside pénètre depuis le périplasme dans une poche aqueuse au centre de la protéine. Sa liaison à cette cavité déclenche un important changement conformationnel qui referme la poche du côté extracellulaire mais l'ouvre vers le cytoplasme.
 </t>
         </is>
